--- a/6_Inventory_Management/5_Invoice/Invoice # 001.xlsx
+++ b/6_Inventory_Management/5_Invoice/Invoice # 001.xlsx
@@ -50,9 +50,6 @@
     <t>Balance Due</t>
   </si>
   <si>
-    <t>Terms &amp; Instructions</t>
-  </si>
-  <si>
     <t xml:space="preserve"> # 001</t>
   </si>
   <si>
@@ -87,20 +84,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">As bugs are part and parcel of every software project, taking that into consideration small issues and bugs will be 
-addressed and fixed free of cost up to 15 days from this invoice. After that period maintenance charges will apply
-to be decided at later stage. </t>
-  </si>
-  <si>
     <t>(Email: syedmeesamali@yahoo.com)</t>
   </si>
   <si>
     <t>sibte.5shah@gmail.com</t>
   </si>
   <si>
-    <t>14 - 01 - 2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">50% First Payment: </t>
   </si>
   <si>
@@ -117,6 +106,30 @@
   </si>
   <si>
     <t>Thanks &amp; Best Regards !</t>
+  </si>
+  <si>
+    <t>BILL TO:</t>
+  </si>
+  <si>
+    <t>Inventory Management System (IMS) in MS Excel to be finalized based on the latest MoU including below items:
+- Full customer/supplier invoice entry
+- Import customer/supplier invoices
+- Import customer/supplier/product list records
+- Re-order levels
+- Report on Stocks
+- Report on re-order levels
+- Detailed product sale/purchase history</t>
+  </si>
+  <si>
+    <t>PAYMENT DEAILS:</t>
+  </si>
+  <si>
+    <t>IBAN # AE490260001015003567001
+Name: SYED MEESAM ALI
+Bank: Emirates NBD, Dubai - UAE</t>
+  </si>
+  <si>
+    <t>19 - 01 - 2020</t>
   </si>
   <si>
     <r>
@@ -128,21 +141,8 @@
         <color rgb="FF000000"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>File Qty (i.e. Hours) will be calculated on final completion.</t>
+      <t>Final Qty (i.e. Hours) will be calculated on final completion.</t>
     </r>
-  </si>
-  <si>
-    <t>BILL TO:</t>
-  </si>
-  <si>
-    <t>Inventory Management System (IMS) in MS Excel to be finalized based on the latest MoU including below items:
-- Full customer/supplier invoice entry
-- Import customer/supplier invoices
-- Import customer/supplier/product list records
-- Re-order levels
-- Report on Stocks
-- Report on re-order levels
-- Detailed product sale/purchase history</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -373,6 +373,28 @@
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="5">
@@ -585,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -753,6 +775,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -781,28 +822,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -815,30 +868,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:H28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1193,26 +1224,26 @@
     <row r="2" spans="1:9" ht="32.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="76"/>
+      <c r="C2" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="78"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
       <c r="H3" s="8"/>
@@ -1220,9 +1251,9 @@
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="60"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="11"/>
@@ -1233,7 +1264,7 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="60"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="10"/>
       <c r="D5" s="1"/>
       <c r="E5" s="14"/>
@@ -1244,7 +1275,7 @@
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="11"/>
@@ -1255,9 +1286,9 @@
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="11"/>
@@ -1268,63 +1299,63 @@
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="88" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="60"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="56" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="60"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="60"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="60"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="60"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="60"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="20"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="60"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="24"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="60"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="20"/>
       <c r="D12" s="26"/>
       <c r="G12" s="27"/>
@@ -1333,18 +1364,18 @@
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="29" t="s">
         <v>5</v>
       </c>
@@ -1352,32 +1383,32 @@
     </row>
     <row r="14" spans="1:9" ht="126.75" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="89"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="81"/>
       <c r="E14" s="30">
-        <v>46</v>
-      </c>
-      <c r="F14" s="64">
+        <v>47</v>
+      </c>
+      <c r="F14" s="71">
         <v>40</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="31">
         <f t="shared" ref="H14:H17" si="0">E14*F14</f>
-        <v>1840</v>
+        <v>1880</v>
       </c>
       <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="63"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1386,12 +1417,12 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="63"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1400,12 +1431,12 @@
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="63"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1414,33 +1445,33 @@
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="87" t="s">
-        <v>24</v>
+      <c r="B18" s="67"/>
+      <c r="C18" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H18" s="38">
         <f>SUM(H14:H17)</f>
-        <v>1840</v>
+        <v>1880</v>
       </c>
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="60"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="85"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="60"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H19" s="38">
         <v>100</v>
@@ -1450,32 +1481,32 @@
     <row r="20" spans="1:9" ht="19.5" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="84"/>
+      <c r="C20" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H20" s="38">
         <f>H18-H19</f>
-        <v>1740</v>
+        <v>1780</v>
       </c>
       <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="84"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="38">
+      <c r="G21" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="63">
         <v>0</v>
       </c>
       <c r="I21" s="39"/>
@@ -1483,24 +1514,24 @@
     <row r="22" spans="1:9" ht="19.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="84"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="83">
+      <c r="G22" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="62">
         <f>0.5*H20</f>
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" ht="33.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="42" t="s">
@@ -1508,29 +1539,29 @@
       </c>
       <c r="H23" s="43">
         <f>H22</f>
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="90" t="str">
+      <c r="C24" s="84" t="str">
         <f>"as per this "&amp;B8&amp;B3</f>
         <v>as per this INVOICE # 001</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" ht="9.75" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="46" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -1542,36 +1573,36 @@
     <row r="26" spans="1:9" ht="44.25" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
+      <c r="C26" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9" ht="10.5" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
@@ -1587,17 +1618,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C20:D22"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C20:D22"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C15:D15"/>
@@ -1612,6 +1642,7 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B8:B19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1"/>
